--- a/Assets/Levels/FuelTanks.xlsx
+++ b/Assets/Levels/FuelTanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15F86E-3482-481D-85DA-04F5B679FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD0C10-48F0-4F22-8552-636D14856A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{543AD0B1-5B18-4FA5-8003-7C9D3464DA33}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF369A3-DCC3-4973-AC1E-EF925DA3C8EE}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="B1" s="1">
         <v>128</v>
@@ -423,7 +423,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>+A1+62*11</f>
-        <v>682</v>
+        <v>1364</v>
       </c>
       <c r="B2" s="1">
         <v>128</v>
@@ -434,8 +434,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A16" si="0">+A2+62*11</f>
-        <v>1364</v>
+        <f>+A2+62*11</f>
+        <v>2046</v>
       </c>
       <c r="B3" s="1">
         <v>128</v>
@@ -446,8 +446,8 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>2046</v>
+        <f>+A3+62*11</f>
+        <v>2728</v>
       </c>
       <c r="B4" s="1">
         <v>128</v>
@@ -458,8 +458,8 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>2728</v>
+        <f>+A4+62*11</f>
+        <v>3410</v>
       </c>
       <c r="B5" s="1">
         <v>128</v>
@@ -470,8 +470,8 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>3410</v>
+        <f>+A5+62*11</f>
+        <v>4092</v>
       </c>
       <c r="B6" s="1">
         <v>128</v>
@@ -482,8 +482,8 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>4092</v>
+        <f>+A6+62*11</f>
+        <v>4774</v>
       </c>
       <c r="B7" s="1">
         <v>128</v>
@@ -494,8 +494,8 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>4774</v>
+        <f>+A7+62*11</f>
+        <v>5456</v>
       </c>
       <c r="B8" s="1">
         <v>128</v>
@@ -506,8 +506,8 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>5456</v>
+        <f>+A8+62*11</f>
+        <v>6138</v>
       </c>
       <c r="B9" s="1">
         <v>128</v>
@@ -518,8 +518,8 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>6138</v>
+        <f>+A9+62*11</f>
+        <v>6820</v>
       </c>
       <c r="B10" s="1">
         <v>128</v>
@@ -530,8 +530,8 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>6820</v>
+        <f>+A10+62*11</f>
+        <v>7502</v>
       </c>
       <c r="B11" s="1">
         <v>128</v>
@@ -542,61 +542,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>7502</v>
+        <f>+A11+62*11</f>
+        <v>8184</v>
       </c>
       <c r="B12" s="1">
         <v>128</v>
       </c>
       <c r="C12" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>8184</v>
-      </c>
-      <c r="B13" s="1">
-        <v>128</v>
-      </c>
-      <c r="C13" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>8866</v>
-      </c>
-      <c r="B14" s="1">
-        <v>128</v>
-      </c>
-      <c r="C14" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>9548</v>
-      </c>
-      <c r="B15" s="1">
-        <v>128</v>
-      </c>
-      <c r="C15" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>10230</v>
-      </c>
-      <c r="B16" s="1">
-        <v>128</v>
-      </c>
-      <c r="C16" s="1">
         <v>200</v>
       </c>
     </row>
